--- a/Classeur2.xlsx
+++ b/Classeur2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
   <si>
     <t>PWD=/Volumes/Data/nfs/zfs-student-2/users/2014/ngoguey/proj08_unix_sh</t>
   </si>
@@ -392,6 +392,132 @@
   </si>
   <si>
     <t>&gt;|</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>pipe lit le fd1 quoi qu'il en soit</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/null | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/stderr | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/stdout &gt;/dev/stdout | cat -e</t>
+  </si>
+  <si>
+    <t>résultat == lol$</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/stdout | cat -e</t>
+  </si>
+  <si>
+    <t>résultat == lol</t>
+  </si>
+  <si>
+    <t>résultat == rien</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/stderr &gt;/dev/stderr | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/null &gt;/dev/null | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/stdout &gt;/dev/stderr | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/stdout &gt;/dev/null | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/stderr &gt;/dev/stdout | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/stderr &gt;/dev/null | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/null &gt;/dev/stdout | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;/dev/null &gt;/dev/stderr | cat -e</t>
+  </si>
+  <si>
+    <t>SUR BASH ET SH</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;1 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;1 &gt;1 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;2 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;2 &gt;2 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;1 &gt;2 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;2 &gt;1 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;n &gt;2 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;n | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;n &gt;n | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;1 &gt;n | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;2 &gt;n | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" &gt;n &gt;1 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;1 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;1 1&gt;1 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;2 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;2 1&gt;2 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;1 1&gt;2 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;n 1&gt;2 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;2 1&gt;1 | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;n | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;n 1&gt;n | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;1 1&gt;n | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;2 1&gt;n | cat -e</t>
+  </si>
+  <si>
+    <t>echo "lol" 1&gt;n 1&gt;1 | cat -e</t>
   </si>
 </sst>
 </file>
@@ -443,7 +569,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +579,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,12 +604,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -480,10 +734,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="119">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -816,7 +1188,7 @@
   <dimension ref="D10:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="A38:K42"/>
+      <selection activeCell="F10" sqref="C10:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1071,16 +1443,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E17:H65"/>
+  <dimension ref="E17:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="5" max="5" width="10.83203125" style="5"/>
     <col min="6" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="17" spans="5:7" ht="17">
@@ -1285,9 +1658,204 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="7:7">
+    <row r="65" spans="7:10">
       <c r="G65" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
+      <c r="I68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
+      <c r="J73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="7:18">
+      <c r="J81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="7:18">
+      <c r="J84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="7:18">
+      <c r="G85" s="6"/>
+      <c r="J85" t="s">
+        <v>70</v>
+      </c>
+      <c r="O85" t="s">
+        <v>82</v>
+      </c>
+      <c r="R85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="7:18">
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="J86" t="s">
+        <v>68</v>
+      </c>
+      <c r="O86" t="s">
+        <v>83</v>
+      </c>
+      <c r="R86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="7:18">
+      <c r="J94" t="s">
+        <v>71</v>
+      </c>
+      <c r="O94" t="s">
+        <v>71</v>
+      </c>
+      <c r="R94" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="7:18">
+      <c r="G95" s="1"/>
+      <c r="J95" t="s">
+        <v>67</v>
+      </c>
+      <c r="O95" t="s">
+        <v>84</v>
+      </c>
+      <c r="R95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="7:18">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="J96" t="s">
+        <v>73</v>
+      </c>
+      <c r="O96" t="s">
+        <v>85</v>
+      </c>
+      <c r="R96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="7:18">
+      <c r="G97" s="6"/>
+      <c r="H97" s="1"/>
+      <c r="J97" t="s">
+        <v>75</v>
+      </c>
+      <c r="O97" t="s">
+        <v>86</v>
+      </c>
+      <c r="R97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="7:18">
+      <c r="G98" s="7"/>
+      <c r="H98" s="1"/>
+      <c r="J98" t="s">
+        <v>80</v>
+      </c>
+      <c r="O98" t="s">
+        <v>88</v>
+      </c>
+      <c r="R98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="7:18">
+      <c r="G99" s="1"/>
+      <c r="H99" s="6"/>
+      <c r="J99" t="s">
+        <v>77</v>
+      </c>
+      <c r="O99" t="s">
+        <v>87</v>
+      </c>
+      <c r="R99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="7:18">
+      <c r="J107" t="s">
+        <v>72</v>
+      </c>
+      <c r="O107" t="s">
+        <v>72</v>
+      </c>
+      <c r="R107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="7:18">
+      <c r="G108" s="7"/>
+      <c r="J108" t="s">
+        <v>66</v>
+      </c>
+      <c r="O108" t="s">
+        <v>89</v>
+      </c>
+      <c r="R108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="7:18">
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="J109" t="s">
+        <v>74</v>
+      </c>
+      <c r="O109" t="s">
+        <v>90</v>
+      </c>
+      <c r="R109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="7:18">
+      <c r="G110" s="6"/>
+      <c r="H110" s="7"/>
+      <c r="J110" t="s">
+        <v>76</v>
+      </c>
+      <c r="O110" t="s">
+        <v>91</v>
+      </c>
+      <c r="R110" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="7:18">
+      <c r="G111" s="1"/>
+      <c r="H111" s="7"/>
+      <c r="J111" t="s">
+        <v>78</v>
+      </c>
+      <c r="O111" t="s">
+        <v>92</v>
+      </c>
+      <c r="R111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="7:18">
+      <c r="G112" s="7"/>
+      <c r="H112" s="6"/>
+      <c r="J112" t="s">
+        <v>79</v>
+      </c>
+      <c r="O112" t="s">
+        <v>93</v>
+      </c>
+      <c r="R112" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur2.xlsx
+++ b/Classeur2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
   <si>
     <t>PWD=/Volumes/Data/nfs/zfs-student-2/users/2014/ngoguey/proj08_unix_sh</t>
   </si>
@@ -518,6 +518,24 @@
   </si>
   <si>
     <t>echo "lol" 1&gt;n 1&gt;1 | cat -e</t>
+  </si>
+  <si>
+    <t>[n|&amp;]&gt;{&amp;n|file}</t>
+  </si>
+  <si>
+    <t>[n]&lt;{&amp;n|file}</t>
+  </si>
+  <si>
+    <t>[n|&amp;]&gt;&gt;{&amp;n|file}</t>
+  </si>
+  <si>
+    <t>[n]&lt;&lt;{&amp;n|file}</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -604,9 +622,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -737,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="124">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
@@ -856,6 +879,11 @@
     <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1443,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E17:R112"/>
+  <dimension ref="E17:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1856,6 +1884,36 @@
       </c>
       <c r="R112" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="11:11">
+      <c r="K119" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="11:11">
+      <c r="K120" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="11:11">
+      <c r="K121" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="11:11">
+      <c r="K122" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="123" spans="11:11">
+      <c r="K123" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="11:11">
+      <c r="K124" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur2.xlsx
+++ b/Classeur2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
   <si>
     <t>PWD=/Volumes/Data/nfs/zfs-student-2/users/2014/ngoguey/proj08_unix_sh</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>ls -l &amp;&gt;outfile &amp;&lt;infile &amp;&lt;&lt;heredelim &amp;&gt;&gt;append \t</t>
+  </si>
+  <si>
+    <t>ls -l &amp;&gt;&amp;1 &amp;&lt;&amp;1 &amp;&lt;&lt;&amp;1 &amp;&gt;&gt;&amp;1 \t</t>
   </si>
 </sst>
 </file>
@@ -622,9 +628,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -760,7 +768,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="126">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
@@ -884,6 +892,8 @@
     <cellStyle name="Lien hypertexte visité" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1471,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E17:R124"/>
+  <dimension ref="E17:R133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K120" sqref="K120"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1914,6 +1924,16 @@
     <row r="124" spans="11:11">
       <c r="K124" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="11:11">
+      <c r="K131" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="11:11">
+      <c r="K133" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur2.xlsx
+++ b/Classeur2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
   <si>
     <t>PWD=/Volumes/Data/nfs/zfs-student-2/users/2014/ngoguey/proj08_unix_sh</t>
   </si>
@@ -520,18 +520,6 @@
     <t>echo "lol" 1&gt;n 1&gt;1 | cat -e</t>
   </si>
   <si>
-    <t>[n|&amp;]&gt;{&amp;n|file}</t>
-  </si>
-  <si>
-    <t>[n]&lt;{&amp;n|file}</t>
-  </si>
-  <si>
-    <t>[n|&amp;]&gt;&gt;{&amp;n|file}</t>
-  </si>
-  <si>
-    <t>[n]&lt;&lt;{&amp;n|file}</t>
-  </si>
-  <si>
     <t>|</t>
   </si>
   <si>
@@ -542,6 +530,21 @@
   </si>
   <si>
     <t>ls -l &amp;&gt;&amp;1 &amp;&lt;&amp;1 &amp;&lt;&lt;&amp;1 &amp;&gt;&gt;&amp;1 \t</t>
+  </si>
+  <si>
+    <t>ls -l &amp;&gt;outfile &amp;&lt;infile &amp;&lt;&lt;heredelim &amp;&gt;&gt;append \t | cat -e &lt;bordel ; echo "chienne" &gt;caca</t>
+  </si>
+  <si>
+    <t>[digits|&amp;]&gt;{&amp;digits|file}</t>
+  </si>
+  <si>
+    <t>[digits|&amp;]&gt;&gt;{&amp;digits|file}</t>
+  </si>
+  <si>
+    <t>[digits]&lt;{&amp;digits|file}</t>
+  </si>
+  <si>
+    <t>[digits]&lt;&lt;{&amp;digits|file}</t>
   </si>
 </sst>
 </file>
@@ -628,9 +631,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="126">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -768,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="126">
+  <cellStyles count="163">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
@@ -894,6 +934,43 @@
     <cellStyle name="Lien hypertexte visité" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1481,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E17:R133"/>
+  <dimension ref="E17:R136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+      <selection activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1898,42 +1975,47 @@
     </row>
     <row r="119" spans="11:11">
       <c r="K119" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="11:11">
       <c r="K120" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="11:11">
       <c r="K121" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="11:11">
       <c r="K122" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="11:11">
       <c r="K123" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="11:11">
       <c r="K124" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="11:11">
       <c r="K131" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="11:11">
       <c r="K133" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" spans="11:11">
+      <c r="K136" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur2.xlsx
+++ b/Classeur2.xlsx
@@ -538,13 +538,13 @@
     <t>[digits|&amp;]&gt;{&amp;digits|file}</t>
   </si>
   <si>
-    <t>[digits|&amp;]&gt;&gt;{&amp;digits|file}</t>
-  </si>
-  <si>
     <t>[digits]&lt;{&amp;digits|file}</t>
   </si>
   <si>
-    <t>[digits]&lt;&lt;{&amp;digits|file}</t>
+    <t>[digits]&gt;&gt;file</t>
+  </si>
+  <si>
+    <t>[digits]&lt;&lt;keyword</t>
   </si>
 </sst>
 </file>
@@ -631,9 +631,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="163">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -808,7 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="163">
+  <cellStyles count="165">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
@@ -971,6 +973,8 @@
     <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1560,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E17:R136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K136" sqref="K136"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1980,12 +1984,12 @@
     </row>
     <row r="120" spans="11:11">
       <c r="K120" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="11:11">
       <c r="K121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="11:11">

--- a/Classeur2.xlsx
+++ b/Classeur2.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="26600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="26600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="shells's base env variables" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="185">
   <si>
     <t>PWD=/Volumes/Data/nfs/zfs-student-2/users/2014/ngoguey/proj08_unix_sh</t>
   </si>
@@ -546,12 +547,222 @@
   <si>
     <t>[digits]&lt;&lt;keyword</t>
   </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/129/low_d_piscine_c___-_d06_-_07_const_cast_late_1__Output_1_.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/129/piscine_c___-_d06_-_07_const_cast_late_1__Output_1_.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/129/piscine_c___-_d06_-_07_const_cast_late_1__Output_1__sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/136/piscine_c___-_d07_-_02_default_type_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/126/piscine_c___-_d06_-_03_upcast_and_downcast_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/122/piscine_c___-_d06_-_00__intro_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/128/piscine_c___-_d06_-_06_reinterpret_cast_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/130/piscine_c___-_d06_-_08_type-cast_operator_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/106/piscine_c___-_d00_-_08_class_vs_struct_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/124/piscine_c___-_d06_-_02_from_C_-_type_qualifier_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/118/piscine_c___-_d04_-_01_classes_abstraites_et_les_interfaces_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/110/piscine_c___-_d00_-_conclusion_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/134/piscine_c___-_d07_-_00__intro_1_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/113/piscine_c___-_d00_-_12_pointers_to_members_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/131/piscine_c___-_d06_-_09_explicit_keyword_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/94/piscine_c___-_d02_-_00_ad-hoc_polymorphism_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/100/piscine_c___-_d00_-_02_class_and_instance_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/114/piscine_c___-_d01_-_02_filestream_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/127/piscine_c___-_d06_-_04_static_cast_late_1__Output_1__sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/108/piscine_c___-_d00_-_09_accessors_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/115/piscine_c___-_d01_-_00_new_and_delete_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/120/piscine_c___-_d05_-_00_classes_imbriquer_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/93/piscine_c___-_d02_-_00__intro_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/104/piscine_c___-_d00_-_05_init_list_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/116/piscine_c___-_d01_-_01_reference_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/98/piscine_c___-_d00_-_00_namespace_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/135/piscine_c___-_d07_-_conclusion_sthumb</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/136/low_d_piscine_c___-_d07_-_02_default_type.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/126/low_d_piscine_c___-_d06_-_03_upcast_and_downcast.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/122/low_d_piscine_c___-_d06_-_00__intro.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/128/low_d_piscine_c___-_d06_-_06_reinterpret_cast.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/130/low_d_piscine_c___-_d06_-_08_type-cast_operator.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/106/low_d_piscine_c___-_d00_-_08_class_vs_struct.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/124/low_d_piscine_c___-_d06_-_02_from_C_-_type_qualifier.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/118/low_d_piscine_c___-_d04_-_01_classes_abstraites_et_les_interfaces.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/110/low_d_piscine_c___-_d00_-_conclusion.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/134/low_d_piscine_c___-_d07_-_00__intro_1.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/113/low_d_piscine_c___-_d00_-_12_pointers_to_members.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/131/low_d_piscine_c___-_d06_-_09_explicit_keyword.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/94/low_d_piscine_c___-_d02_-_00_ad-hoc_polymorphism.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/100/low_d_piscine_c___-_d00_-_02_class_and_instance.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/114/low_d_piscine_c___-_d01_-_02_filestream.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/127/low_d_piscine_c___-_d06_-_04_static_cast_late_1__Output_1_.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/108/low_d_piscine_c___-_d00_-_09_accessors.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/115/low_d_piscine_c___-_d01_-_00_new_and_delete.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/120/low_d_piscine_c___-_d05_-_00_classes_imbriquer.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/93/low_d_piscine_c___-_d02_-_00__intro.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/104/low_d_piscine_c___-_d00_-_05_init_list.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/116/low_d_piscine_c___-_d01_-_01_reference.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/98/low_d_piscine_c___-_d00_-_00_namespace.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/135/low_d_piscine_c___-_d07_-_conclusion.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/99/low_d_piscine_c___-_d00_-_01_stdio_streams.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/137/low_d_piscine_c___-_d07_-_03_specialization.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/92/low_d_piscine_c___-_d00_-_00_intro.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/112/low_d_piscine_c___-_d00_-_11_non_membres_attributs_and_non_membres_fonctions.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/103/low_d_piscine_c___-_d00_-_04_this.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/121/low_d_piscine_c___-_d05_-_01_les_exceptions.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/96/low_d_piscine_c___-_d02_-_02_caconical_form.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/105/low_d_piscine_c___-_d00_-_06_const.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/138/low_d_piscine_c___-_d07_-_01_templates.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/95/low_d_piscine_c___-_d02_-_01_operator_overload.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/97/low_d_piscine_c___-_d02_-conclusion.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/102/low_d_piscine_c___-_d00_-_03_member_attributs_and_member_function.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/117/low_d_piscine_c___-_d03_-_00_heritage.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/139/low_d_piscine_c___-_Intro_Piscine_CPP.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/109/low_d_piscine_c___-_d00_-_10_comparaisons.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/107/low_d_piscine_c___-_d00_-_07_encapsulation.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/119/low_d_piscine_c___-_d04_-_00_polymorphismes_et_sous-typages.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/125/low_d_piscine_c___-_d06_-_01_from_C_-_type_reinterpretation.mp4</t>
+  </si>
+  <si>
+    <t>https://cdn.intrav2.42.fr/video/video/123/low_d_piscine_c___-_d06_-_00_from_C_-_type_conversion.mp4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,6 +806,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -631,7 +849,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -797,8 +1015,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -809,8 +1041,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="179">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
@@ -975,6 +1208,20 @@
     <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1564,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E17:R136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="K133" sqref="K133"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1978,7 +2225,7 @@
       </c>
     </row>
     <row r="119" spans="11:11">
-      <c r="K119" t="s">
+      <c r="K119" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2034,4 +2281,499 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D13:F109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="13" spans="4:4">
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="4:6">
+      <c r="D37" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="D38" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="4:6">
+      <c r="D39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="D40" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="4:6">
+      <c r="D41" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="4:6">
+      <c r="D42" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="4:6">
+      <c r="D43" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="4:6">
+      <c r="D44" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="4:6">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="4:6">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="4:6">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="4:6">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="4:6">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="4:6">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="D52" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="4:6">
+      <c r="D53" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="4:6">
+      <c r="D54" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="4:6">
+      <c r="D55" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="4:6">
+      <c r="D56" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="4:6">
+      <c r="D57" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="4:6">
+      <c r="D58" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="4:6">
+      <c r="D59" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="4:6">
+      <c r="D60" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="4:6">
+      <c r="D61" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="4:6">
+      <c r="D62" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="4:6">
+      <c r="D63" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="4:6">
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5">
+      <c r="E86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5">
+      <c r="E88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5">
+      <c r="E89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5">
+      <c r="E90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5">
+      <c r="E91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5">
+      <c r="E92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5">
+      <c r="E95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5">
+      <c r="E96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5">
+      <c r="E100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5">
+      <c r="E107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5">
+      <c r="E108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Classeur2.xlsx
+++ b/Classeur2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="26600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="26600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shells's base env variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="185">
   <si>
     <t>PWD=/Volumes/Data/nfs/zfs-student-2/users/2014/ngoguey/proj08_unix_sh</t>
   </si>
@@ -551,9 +551,6 @@
     <t>https://cdn.intrav2.42.fr/video/video/129/low_d_piscine_c___-_d06_-_07_const_cast_late_1__Output_1_.mp4</t>
   </si>
   <si>
-    <t>https://cdn.intrav2.42.fr/video/video/129/piscine_c___-_d06_-_07_const_cast_late_1__Output_1_.mp4</t>
-  </si>
-  <si>
     <t>https://cdn.intrav2.42.fr/video/video/129/piscine_c___-_d06_-_07_const_cast_late_1__Output_1__sthumb</t>
   </si>
   <si>
@@ -756,6 +753,9 @@
   </si>
   <si>
     <t>https://cdn.intrav2.42.fr/video/video/123/low_d_piscine_c___-_d06_-_00_from_C_-_type_conversion.mp4</t>
+  </si>
+  <si>
+    <t>&amp;&gt;&amp;255 256&gt;&amp;256 100000000000&gt;&amp;10000000000 0&gt;&amp;0 &gt;outfile</t>
   </si>
 </sst>
 </file>
@@ -1809,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E17:R136"/>
+  <dimension ref="E17:R139"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2267,6 +2267,11 @@
     <row r="136" spans="11:11">
       <c r="K136" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="11:11">
+      <c r="K139" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2285,486 +2290,844 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D13:F109"/>
+  <dimension ref="C18:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="112.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="13" spans="4:4">
-      <c r="D13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
+    <row r="18" spans="3:6">
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="4:6">
+    <row r="19" spans="3:6">
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="3:6">
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="D20" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="4" t="str">
+        <f>HYPERLINK(D20)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/129/low_d_piscine_c___-_d06_-_07_const_cast_late_1__Output_1_.mp4</v>
+      </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="3:6">
+      <c r="C21">
+        <v>2</v>
+      </c>
       <c r="D21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" ref="E21:E71" si="0">HYPERLINK(D21)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/136/low_d_piscine_c___-_d07_-_02_default_type.mp4</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/126/low_d_piscine_c___-_d06_-_03_upcast_and_downcast.mp4</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/122/low_d_piscine_c___-_d06_-_00__intro.mp4</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/128/low_d_piscine_c___-_d06_-_06_reinterpret_cast.mp4</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/130/low_d_piscine_c___-_d06_-_08_type-cast_operator.mp4</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/106/low_d_piscine_c___-_d00_-_08_class_vs_struct.mp4</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/124/low_d_piscine_c___-_d06_-_02_from_C_-_type_qualifier.mp4</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/118/low_d_piscine_c___-_d04_-_01_classes_abstraites_et_les_interfaces.mp4</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/110/low_d_piscine_c___-_d00_-_conclusion.mp4</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="D30" s="8" t="s">
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/134/low_d_piscine_c___-_d07_-_00__intro_1.mp4</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/113/low_d_piscine_c___-_d00_-_12_pointers_to_members.mp4</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/131/low_d_piscine_c___-_d06_-_09_explicit_keyword.mp4</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/94/low_d_piscine_c___-_d02_-_00_ad-hoc_polymorphism.mp4</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/100/low_d_piscine_c___-_d00_-_02_class_and_instance.mp4</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35">
+        <v>16</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/114/low_d_piscine_c___-_d01_-_02_filestream.mp4</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/127/low_d_piscine_c___-_d06_-_04_static_cast_late_1__Output_1_.mp4</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/108/low_d_piscine_c___-_d00_-_09_accessors.mp4</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="D38" s="8" t="s">
+      <c r="E38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/115/low_d_piscine_c___-_d01_-_00_new_and_delete.mp4</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="4:6">
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/120/low_d_piscine_c___-_d05_-_00_classes_imbriquer.mp4</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/93/low_d_piscine_c___-_d02_-_00__intro.mp4</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="4:6">
-      <c r="D41" s="8" t="s">
+      <c r="E41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/104/low_d_piscine_c___-_d00_-_05_init_list.mp4</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="4:6">
-      <c r="D42" s="8" t="s">
+      <c r="E42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/116/low_d_piscine_c___-_d01_-_01_reference.mp4</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="4:6">
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/98/low_d_piscine_c___-_d00_-_00_namespace.mp4</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="4:6">
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://cdn.intrav2.42.fr/video/video/135/low_d_piscine_c___-_d07_-_conclusion.mp4</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45">
+        <v>26</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="4:6">
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="4" t="e">
+        <f>HYPERLINK(#REF!)</f>
+        <v>#REF!</v>
+      </c>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="4:6">
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+    <row r="46" spans="3:6">
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="4" t="e">
+        <f>HYPERLINK(#REF!)</f>
+        <v>#REF!</v>
+      </c>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="4:6">
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+    <row r="47" spans="3:6">
+      <c r="C47">
+        <v>28</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="4" t="e">
+        <f>HYPERLINK(#REF!)</f>
+        <v>#REF!</v>
+      </c>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="4:6">
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+    <row r="48" spans="3:6">
+      <c r="C48">
+        <v>29</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="4" t="e">
+        <f>HYPERLINK(#REF!)</f>
+        <v>#REF!</v>
+      </c>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="4:6">
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+    <row r="49" spans="3:6">
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="4" t="e">
+        <f>HYPERLINK(#REF!)</f>
+        <v>#REF!</v>
+      </c>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="4:6">
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+    <row r="50" spans="3:6">
+      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="4" t="e">
+        <f>HYPERLINK(#REF!)</f>
+        <v>#REF!</v>
+      </c>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="4:6">
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+    <row r="51" spans="3:6">
+      <c r="C51">
+        <v>32</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="4" t="e">
+        <f>HYPERLINK(#REF!)</f>
+        <v>#REF!</v>
+      </c>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="3:6">
+      <c r="C52">
+        <v>33</v>
+      </c>
       <c r="D52" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="8"/>
+        <v>172</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <f>HYPERLINK(D45)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/99/low_d_piscine_c___-_d00_-_01_stdio_streams.mp4</v>
+      </c>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="4:6">
+    <row r="53" spans="3:6">
+      <c r="C53">
+        <v>34</v>
+      </c>
       <c r="D53" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f>HYPERLINK(D46)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/137/low_d_piscine_c___-_d07_-_03_specialization.mp4</v>
+      </c>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="4:6">
+    <row r="54" spans="3:6">
+      <c r="C54">
+        <v>35</v>
+      </c>
       <c r="D54" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="8"/>
+        <v>174</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f>HYPERLINK(D47)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/92/low_d_piscine_c___-_d00_-_00_intro.mp4</v>
+      </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="4:6">
+    <row r="55" spans="3:6">
+      <c r="C55">
+        <v>36</v>
+      </c>
       <c r="D55" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" s="8"/>
+        <v>175</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f>HYPERLINK(D48)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/112/low_d_piscine_c___-_d00_-_11_non_membres_attributs_and_non_membres_fonctions.mp4</v>
+      </c>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="4:6">
+    <row r="56" spans="3:6">
+      <c r="C56">
+        <v>37</v>
+      </c>
       <c r="D56" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f>HYPERLINK(D49)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/103/low_d_piscine_c___-_d00_-_04_this.mp4</v>
+      </c>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="4:6">
-      <c r="D57" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57" s="8"/>
+    <row r="57" spans="3:6">
+      <c r="C57">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="4" t="str">
+        <f>HYPERLINK(D50)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/121/low_d_piscine_c___-_d05_-_01_les_exceptions.mp4</v>
+      </c>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="4:6">
-      <c r="D58" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="8"/>
+    <row r="58" spans="3:6">
+      <c r="C58">
+        <v>39</v>
+      </c>
+      <c r="D58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f>HYPERLINK(D51)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/96/low_d_piscine_c___-_d02_-_02_caconical_form.mp4</v>
+      </c>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="4:6">
-      <c r="D59" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="8"/>
+    <row r="59" spans="3:6">
+      <c r="C59">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f>HYPERLINK(D52)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/105/low_d_piscine_c___-_d00_-_06_const.mp4</v>
+      </c>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="4:6">
-      <c r="D60" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E60" s="8"/>
+    <row r="60" spans="3:6">
+      <c r="C60">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f>HYPERLINK(D53)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/138/low_d_piscine_c___-_d07_-_01_templates.mp4</v>
+      </c>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="4:6">
-      <c r="D61" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="8"/>
+    <row r="61" spans="3:6">
+      <c r="C61">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f>HYPERLINK(D54)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/95/low_d_piscine_c___-_d02_-_01_operator_overload.mp4</v>
+      </c>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="4:6">
-      <c r="D62" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E62" s="8"/>
+    <row r="62" spans="3:6">
+      <c r="C62">
+        <v>43</v>
+      </c>
+      <c r="D62" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f>HYPERLINK(D55)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/97/low_d_piscine_c___-_d02_-conclusion.mp4</v>
+      </c>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="4:6">
-      <c r="D63" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E63" s="8"/>
+    <row r="63" spans="3:6">
+      <c r="C63">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f>HYPERLINK(D56)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/102/low_d_piscine_c___-_d00_-_03_member_attributs_and_member_function.mp4</v>
+      </c>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="4:6">
-      <c r="D64" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5">
+    <row r="64" spans="3:6">
+      <c r="C64">
+        <v>45</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f>HYPERLINK(D57)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/117/low_d_piscine_c___-_d03_-_00_heritage.mp4</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65">
+        <v>46</v>
+      </c>
+      <c r="E65" s="4" t="str">
+        <f>HYPERLINK(D58)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/139/low_d_piscine_c___-_Intro_Piscine_CPP.mp4</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66">
+        <v>47</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f>HYPERLINK(D59)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/109/low_d_piscine_c___-_d00_-_10_comparaisons.mp4</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67">
+        <v>48</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f>HYPERLINK(D60)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/107/low_d_piscine_c___-_d00_-_07_encapsulation.mp4</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68">
+        <v>49</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f>HYPERLINK(D61)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/119/low_d_piscine_c___-_d04_-_00_polymorphismes_et_sous-typages.mp4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69">
+        <v>50</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f>HYPERLINK(D62)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/125/low_d_piscine_c___-_d06_-_01_from_C_-_type_reinterpretation.mp4</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70">
+        <v>51</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f>HYPERLINK(D63)</f>
+        <v>https://cdn.intrav2.42.fr/video/video/123/low_d_piscine_c___-_d06_-_00_from_C_-_type_conversion.mp4</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71">
+        <v>52</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="C72">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="C74">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="C75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="C76">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="D79">
+        <v>784052106</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5">
+      <c r="D85">
+        <f>22*60+38</f>
+        <v>1358</v>
+      </c>
       <c r="E85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="E86" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="5:5">
-      <c r="E86" t="s">
+    <row r="87" spans="4:5">
+      <c r="E87" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="5:5">
-      <c r="E87" t="s">
+    <row r="88" spans="4:5">
+      <c r="D88">
+        <f>58.7*1024</f>
+        <v>60108.800000000003</v>
+      </c>
+      <c r="E88" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="5:5">
-      <c r="E88" t="s">
+    <row r="89" spans="4:5">
+      <c r="D89">
+        <f>D85/D88*D79</f>
+        <v>17713592.018938988</v>
+      </c>
+      <c r="E89" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="5:5">
-      <c r="E89" t="s">
+    <row r="90" spans="4:5">
+      <c r="D90">
+        <f>D89/3600</f>
+        <v>4920.4422274830522</v>
+      </c>
+      <c r="E90" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="5:5">
-      <c r="E90" t="s">
+    <row r="91" spans="4:5">
+      <c r="D91">
+        <f>D90/1024</f>
+        <v>4.8051193627764182</v>
+      </c>
+      <c r="E91" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="5:5">
-      <c r="E91" t="s">
+    <row r="92" spans="4:5">
+      <c r="E92" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="5:5">
-      <c r="E92" t="s">
+    <row r="93" spans="4:5">
+      <c r="E93" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="5:5">
-      <c r="E93" t="s">
+    <row r="94" spans="4:5">
+      <c r="E94" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="5:5">
-      <c r="E94" t="s">
+    <row r="95" spans="4:5">
+      <c r="E95" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="5:5">
-      <c r="E95" t="s">
+    <row r="96" spans="4:5">
+      <c r="E96" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5">
-      <c r="E96" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="5:5">
       <c r="E100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="5:5">
       <c r="E103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="5:5">
       <c r="E104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="5:5">
       <c r="E106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="5:5">
       <c r="E108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur2.xlsx
+++ b/Classeur2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="26600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25140" windowHeight="26600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shells's base env variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="189">
   <si>
     <t>PWD=/Volumes/Data/nfs/zfs-student-2/users/2014/ngoguey/proj08_unix_sh</t>
   </si>
@@ -757,12 +757,34 @@
   <si>
     <t>&amp;&gt;&amp;255 256&gt;&amp;256 100000000000&gt;&amp;10000000000 0&gt;&amp;0 &gt;outfile</t>
   </si>
+  <si>
+    <t>ls -l 255&gt;1 &amp;&gt;&amp;255 | head -n 5</t>
+  </si>
+  <si>
+    <t>ls -1 5&gt;ourtfile 6&gt;infile 7&gt;&gt;append 8&lt;&lt;eof</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">perl -pe </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>'s|(http://.*?/</t>
+    </r>
+  </si>
+  <si>
+    <t>http://[^/]+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -813,6 +835,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF800000"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -849,7 +881,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1029,8 +1061,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1042,8 +1103,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="208">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
@@ -1222,6 +1284,35 @@
     <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="207" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1554,7 +1645,7 @@
   <dimension ref="D10:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="C10:F17"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1809,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E17:R139"/>
+  <dimension ref="E17:R154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="K123" sqref="K123"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2272,6 +2363,26 @@
     <row r="139" spans="11:11">
       <c r="K139" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="11:11">
+      <c r="K143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="11:11">
+      <c r="K146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="11:11" ht="17">
+      <c r="K153" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="11:11">
+      <c r="K154" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2292,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C18:F109"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2735,7 +2846,7 @@
         <v>172</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f>HYPERLINK(D45)</f>
+        <f t="shared" ref="E52:E70" si="1">HYPERLINK(D45)</f>
         <v>https://cdn.intrav2.42.fr/video/video/99/low_d_piscine_c___-_d00_-_01_stdio_streams.mp4</v>
       </c>
       <c r="F52" s="8"/>
@@ -2748,7 +2859,7 @@
         <v>173</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f>HYPERLINK(D46)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/137/low_d_piscine_c___-_d07_-_03_specialization.mp4</v>
       </c>
       <c r="F53" s="8"/>
@@ -2761,7 +2872,7 @@
         <v>174</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f>HYPERLINK(D47)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/92/low_d_piscine_c___-_d00_-_00_intro.mp4</v>
       </c>
       <c r="F54" s="8"/>
@@ -2774,7 +2885,7 @@
         <v>175</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f>HYPERLINK(D48)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/112/low_d_piscine_c___-_d00_-_11_non_membres_attributs_and_non_membres_fonctions.mp4</v>
       </c>
       <c r="F55" s="8"/>
@@ -2787,7 +2898,7 @@
         <v>176</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f>HYPERLINK(D49)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/103/low_d_piscine_c___-_d00_-_04_this.mp4</v>
       </c>
       <c r="F56" s="8"/>
@@ -2800,7 +2911,7 @@
         <v>177</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f>HYPERLINK(D50)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/121/low_d_piscine_c___-_d05_-_01_les_exceptions.mp4</v>
       </c>
       <c r="F57" s="8"/>
@@ -2813,7 +2924,7 @@
         <v>178</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f>HYPERLINK(D51)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/96/low_d_piscine_c___-_d02_-_02_caconical_form.mp4</v>
       </c>
       <c r="F58" s="8"/>
@@ -2826,7 +2937,7 @@
         <v>179</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f>HYPERLINK(D52)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/105/low_d_piscine_c___-_d00_-_06_const.mp4</v>
       </c>
       <c r="F59" s="8"/>
@@ -2839,7 +2950,7 @@
         <v>180</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f>HYPERLINK(D53)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/138/low_d_piscine_c___-_d07_-_01_templates.mp4</v>
       </c>
       <c r="F60" s="8"/>
@@ -2852,7 +2963,7 @@
         <v>181</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f>HYPERLINK(D54)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/95/low_d_piscine_c___-_d02_-_01_operator_overload.mp4</v>
       </c>
       <c r="F61" s="8"/>
@@ -2865,7 +2976,7 @@
         <v>182</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f>HYPERLINK(D55)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/97/low_d_piscine_c___-_d02_-conclusion.mp4</v>
       </c>
       <c r="F62" s="8"/>
@@ -2878,7 +2989,7 @@
         <v>183</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f>HYPERLINK(D56)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/102/low_d_piscine_c___-_d00_-_03_member_attributs_and_member_function.mp4</v>
       </c>
       <c r="F63" s="8"/>
@@ -2888,7 +2999,7 @@
         <v>45</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f>HYPERLINK(D57)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/117/low_d_piscine_c___-_d03_-_00_heritage.mp4</v>
       </c>
     </row>
@@ -2897,7 +3008,7 @@
         <v>46</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f>HYPERLINK(D58)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/139/low_d_piscine_c___-_Intro_Piscine_CPP.mp4</v>
       </c>
     </row>
@@ -2906,7 +3017,7 @@
         <v>47</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f>HYPERLINK(D59)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/109/low_d_piscine_c___-_d00_-_10_comparaisons.mp4</v>
       </c>
     </row>
@@ -2915,7 +3026,7 @@
         <v>48</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f>HYPERLINK(D60)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/107/low_d_piscine_c___-_d00_-_07_encapsulation.mp4</v>
       </c>
     </row>
@@ -2924,7 +3035,7 @@
         <v>49</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f>HYPERLINK(D61)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/119/low_d_piscine_c___-_d04_-_00_polymorphismes_et_sous-typages.mp4</v>
       </c>
     </row>
@@ -2933,7 +3044,7 @@
         <v>50</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f>HYPERLINK(D62)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/125/low_d_piscine_c___-_d06_-_01_from_C_-_type_reinterpretation.mp4</v>
       </c>
     </row>
@@ -2942,7 +3053,7 @@
         <v>51</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f>HYPERLINK(D63)</f>
+        <f t="shared" si="1"/>
         <v>https://cdn.intrav2.42.fr/video/video/123/low_d_piscine_c___-_d06_-_00_from_C_-_type_conversion.mp4</v>
       </c>
     </row>

--- a/Classeur2.xlsx
+++ b/Classeur2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="192">
   <si>
     <t>PWD=/Volumes/Data/nfs/zfs-student-2/users/2014/ngoguey/proj08_unix_sh</t>
   </si>
@@ -778,6 +778,15 @@
   </si>
   <si>
     <t>http://[^/]+</t>
+  </si>
+  <si>
+    <t>marche</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>marche + avance</t>
   </si>
 </sst>
 </file>
@@ -1900,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E17:R154"/>
+  <dimension ref="E17:R163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="K168" sqref="K168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2370,19 +2379,59 @@
         <v>185</v>
       </c>
     </row>
-    <row r="146" spans="11:11">
+    <row r="146" spans="11:12">
       <c r="K146" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="11:11" ht="17">
+    <row r="153" spans="11:12" ht="17">
       <c r="K153" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="11:11">
+    <row r="154" spans="11:12">
       <c r="K154" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="11:12">
+      <c r="K159">
+        <v>8</v>
+      </c>
+      <c r="L159">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="11:12">
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="161" spans="11:12">
+      <c r="K161">
+        <v>3</v>
+      </c>
+      <c r="L161" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162" spans="11:12">
+      <c r="K162">
+        <v>8</v>
+      </c>
+      <c r="L162">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="11:12">
+      <c r="K163">
+        <v>5</v>
+      </c>
+      <c r="L163" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
